--- a/150 recenica.xlsx
+++ b/150 recenica.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ninam\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/viktorgoles/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA86020-AD48-43BD-981B-0F5B1866DC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CEC0FD-8B19-2243-93EB-441A7A709934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F52B3413-1C41-4183-B39D-317D4A8C6C3D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F52B3413-1C41-4183-B39D-317D4A8C6C3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="160">
   <si>
     <t>Ni moja djevojka nije bila baš oduševljena jer je film imao element jednog od njezinih najvećih strahova, morskih pasa.</t>
   </si>
@@ -510,6 +510,12 @@
   </si>
   <si>
     <t>noz</t>
+  </si>
+  <si>
+    <t>Viktor</t>
+  </si>
+  <si>
+    <t>neuz</t>
   </si>
 </sst>
 </file>
@@ -578,7 +584,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalno" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -594,7 +600,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema sustava Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -912,17 +918,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5944F9A-9168-4261-BA33-776B36B3E9E0}">
   <dimension ref="A1:E152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D152" sqref="D152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="255.6640625" customWidth="1"/>
-    <col min="2" max="5" width="12.77734375" customWidth="1"/>
+    <col min="1" max="1" width="148.1640625" customWidth="1"/>
+    <col min="2" max="5" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>141</v>
       </c>
@@ -932,12 +938,14 @@
       <c r="C1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="E1" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -947,8 +955,11 @@
       <c r="C2" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -958,8 +969,11 @@
       <c r="C3" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -969,8 +983,11 @@
       <c r="C4" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -980,8 +997,11 @@
       <c r="C5" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -991,8 +1011,11 @@
       <c r="C6" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1002,8 +1025,11 @@
       <c r="C7" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1013,8 +1039,11 @@
       <c r="C8" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1024,8 +1053,11 @@
       <c r="C9" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1035,8 +1067,11 @@
       <c r="C10" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1046,8 +1081,11 @@
       <c r="C11" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1057,8 +1095,11 @@
       <c r="C12" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1068,8 +1109,11 @@
       <c r="C13" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1079,8 +1123,11 @@
       <c r="C14" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1090,8 +1137,11 @@
       <c r="C15" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1101,8 +1151,11 @@
       <c r="C16" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1112,8 +1165,11 @@
       <c r="C17" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1123,8 +1179,11 @@
       <c r="C18" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1134,8 +1193,11 @@
       <c r="C19" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1145,8 +1207,11 @@
       <c r="C20" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1156,8 +1221,11 @@
       <c r="C21" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1167,8 +1235,11 @@
       <c r="C22" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1178,8 +1249,11 @@
       <c r="C23" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1189,8 +1263,11 @@
       <c r="C24" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1200,12 +1277,15 @@
       <c r="C25" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1215,8 +1295,11 @@
       <c r="C27" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -1226,8 +1309,11 @@
       <c r="C28" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1237,8 +1323,11 @@
       <c r="C29" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -1248,8 +1337,11 @@
       <c r="C30" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -1259,8 +1351,11 @@
       <c r="C31" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -1270,8 +1365,11 @@
       <c r="C32" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -1281,8 +1379,11 @@
       <c r="C33" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -1292,8 +1393,11 @@
       <c r="C34" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -1303,8 +1407,11 @@
       <c r="C35" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -1314,8 +1421,11 @@
       <c r="C36" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -1325,8 +1435,11 @@
       <c r="C37" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -1336,8 +1449,11 @@
       <c r="C38" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -1347,8 +1463,11 @@
       <c r="C39" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -1358,8 +1477,11 @@
       <c r="C40" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -1369,8 +1491,11 @@
       <c r="C41" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -1380,8 +1505,11 @@
       <c r="C42" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -1391,8 +1519,11 @@
       <c r="C43" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -1402,8 +1533,11 @@
       <c r="C44" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -1413,8 +1547,11 @@
       <c r="C45" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -1424,8 +1561,11 @@
       <c r="C46" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D46" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -1435,8 +1575,11 @@
       <c r="C47" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -1446,8 +1589,11 @@
       <c r="C48" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D48" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -1457,12 +1603,15 @@
       <c r="C49" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
     </row>
-    <row r="51" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>47</v>
       </c>
@@ -1472,8 +1621,11 @@
       <c r="C51" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D51" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>148</v>
       </c>
@@ -1483,8 +1635,11 @@
       <c r="C52" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D52" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>48</v>
       </c>
@@ -1494,8 +1649,11 @@
       <c r="C53" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D53" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>49</v>
       </c>
@@ -1505,8 +1663,11 @@
       <c r="C54" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D54" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>50</v>
       </c>
@@ -1516,8 +1677,11 @@
       <c r="C55" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D55" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>51</v>
       </c>
@@ -1527,8 +1691,11 @@
       <c r="C56" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D56" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>52</v>
       </c>
@@ -1538,8 +1705,11 @@
       <c r="C57" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D57" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>149</v>
       </c>
@@ -1549,8 +1719,11 @@
       <c r="C58" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D58" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>150</v>
       </c>
@@ -1560,8 +1733,11 @@
       <c r="C59" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D59" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>53</v>
       </c>
@@ -1571,8 +1747,11 @@
       <c r="C60" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D60" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>54</v>
       </c>
@@ -1582,8 +1761,11 @@
       <c r="C61" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D61" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>55</v>
       </c>
@@ -1593,8 +1775,11 @@
       <c r="C62" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D62" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>56</v>
       </c>
@@ -1604,8 +1789,11 @@
       <c r="C63" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D63" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>57</v>
       </c>
@@ -1615,8 +1803,11 @@
       <c r="C64" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D64" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>58</v>
       </c>
@@ -1626,8 +1817,11 @@
       <c r="C65" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D65" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>59</v>
       </c>
@@ -1637,8 +1831,11 @@
       <c r="C66" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D66" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>60</v>
       </c>
@@ -1648,8 +1845,11 @@
       <c r="C67" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D67" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>61</v>
       </c>
@@ -1659,8 +1859,11 @@
       <c r="C68" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D68" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>62</v>
       </c>
@@ -1670,8 +1873,11 @@
       <c r="C69" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D69" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>63</v>
       </c>
@@ -1681,8 +1887,11 @@
       <c r="C70" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D70" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>64</v>
       </c>
@@ -1692,8 +1901,11 @@
       <c r="C71" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D71" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>65</v>
       </c>
@@ -1703,8 +1915,11 @@
       <c r="C72" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D72" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>66</v>
       </c>
@@ -1714,8 +1929,11 @@
       <c r="C73" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D73" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>67</v>
       </c>
@@ -1725,8 +1943,11 @@
       <c r="C74" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D74" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>68</v>
       </c>
@@ -1736,8 +1957,11 @@
       <c r="C75" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D75" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>69</v>
       </c>
@@ -1747,8 +1971,11 @@
       <c r="C76" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D76" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>70</v>
       </c>
@@ -1758,8 +1985,11 @@
       <c r="C77" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D77" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>71</v>
       </c>
@@ -1769,12 +1999,15 @@
       <c r="C78" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D78" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
     </row>
-    <row r="80" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>72</v>
       </c>
@@ -1784,8 +2017,11 @@
       <c r="C80" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D80" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>151</v>
       </c>
@@ -1795,8 +2031,11 @@
       <c r="C81" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D81" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>73</v>
       </c>
@@ -1806,8 +2045,11 @@
       <c r="C82" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D82" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>74</v>
       </c>
@@ -1817,8 +2059,11 @@
       <c r="C83" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D83" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>75</v>
       </c>
@@ -1828,8 +2073,11 @@
       <c r="C84" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D84" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>76</v>
       </c>
@@ -1839,8 +2087,11 @@
       <c r="C85" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D85" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>77</v>
       </c>
@@ -1850,8 +2101,11 @@
       <c r="C86" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D86" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>78</v>
       </c>
@@ -1861,8 +2115,11 @@
       <c r="C87" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D87" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>79</v>
       </c>
@@ -1872,8 +2129,11 @@
       <c r="C88" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D88" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>80</v>
       </c>
@@ -1883,8 +2143,11 @@
       <c r="C89" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D89" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>81</v>
       </c>
@@ -1894,8 +2157,11 @@
       <c r="C90" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D90" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>82</v>
       </c>
@@ -1905,8 +2171,11 @@
       <c r="C91" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D91" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>83</v>
       </c>
@@ -1916,8 +2185,11 @@
       <c r="C92" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D92" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>84</v>
       </c>
@@ -1927,8 +2199,11 @@
       <c r="C93" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D93" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>85</v>
       </c>
@@ -1938,8 +2213,11 @@
       <c r="C94" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D94" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>86</v>
       </c>
@@ -1949,8 +2227,11 @@
       <c r="C95" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D95" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>87</v>
       </c>
@@ -1960,8 +2241,11 @@
       <c r="C96" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D96" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>88</v>
       </c>
@@ -1971,8 +2255,11 @@
       <c r="C97" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D97" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>89</v>
       </c>
@@ -1982,8 +2269,11 @@
       <c r="C98" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D98" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>90</v>
       </c>
@@ -1993,8 +2283,11 @@
       <c r="C99" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D99" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>91</v>
       </c>
@@ -2004,8 +2297,11 @@
       <c r="C100" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D100" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>92</v>
       </c>
@@ -2015,8 +2311,11 @@
       <c r="C101" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D101" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>93</v>
       </c>
@@ -2026,8 +2325,11 @@
       <c r="C102" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D102" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>94</v>
       </c>
@@ -2037,8 +2339,11 @@
       <c r="C103" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D103" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>95</v>
       </c>
@@ -2048,8 +2353,11 @@
       <c r="C104" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D104" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>96</v>
       </c>
@@ -2059,8 +2367,11 @@
       <c r="C105" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D105" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>97</v>
       </c>
@@ -2070,8 +2381,11 @@
       <c r="C106" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D106" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>98</v>
       </c>
@@ -2081,12 +2395,15 @@
       <c r="C107" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D107" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
     </row>
-    <row r="109" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>99</v>
       </c>
@@ -2096,8 +2413,11 @@
       <c r="C109" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D109" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>100</v>
       </c>
@@ -2107,8 +2427,11 @@
       <c r="C110" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D110" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>152</v>
       </c>
@@ -2118,8 +2441,11 @@
       <c r="C111" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D111" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>101</v>
       </c>
@@ -2129,8 +2455,11 @@
       <c r="C112" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D112" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>102</v>
       </c>
@@ -2140,8 +2469,11 @@
       <c r="C113" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D113" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>103</v>
       </c>
@@ -2151,8 +2483,11 @@
       <c r="C114" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D114" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>104</v>
       </c>
@@ -2162,8 +2497,11 @@
       <c r="C115" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D115" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>105</v>
       </c>
@@ -2173,8 +2511,11 @@
       <c r="C116" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D116" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>106</v>
       </c>
@@ -2184,8 +2525,11 @@
       <c r="C117" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D117" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>107</v>
       </c>
@@ -2195,8 +2539,11 @@
       <c r="C118" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D118" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>108</v>
       </c>
@@ -2206,8 +2553,11 @@
       <c r="C119" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D119" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>109</v>
       </c>
@@ -2217,8 +2567,11 @@
       <c r="C120" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D120" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>110</v>
       </c>
@@ -2228,8 +2581,11 @@
       <c r="C121" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D121" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>111</v>
       </c>
@@ -2239,8 +2595,11 @@
       <c r="C122" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D122" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>112</v>
       </c>
@@ -2250,8 +2609,11 @@
       <c r="C123" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D123" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>113</v>
       </c>
@@ -2261,8 +2623,11 @@
       <c r="C124" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D124" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>114</v>
       </c>
@@ -2272,8 +2637,11 @@
       <c r="C125" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D125" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>115</v>
       </c>
@@ -2283,8 +2651,11 @@
       <c r="C126" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D126" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>116</v>
       </c>
@@ -2294,8 +2665,11 @@
       <c r="C127" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D127" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>117</v>
       </c>
@@ -2305,8 +2679,11 @@
       <c r="C128" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D128" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>118</v>
       </c>
@@ -2316,8 +2693,11 @@
       <c r="C129" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D129" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>119</v>
       </c>
@@ -2327,8 +2707,11 @@
       <c r="C130" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D130" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>120</v>
       </c>
@@ -2338,8 +2721,11 @@
       <c r="C131" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D131" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>121</v>
       </c>
@@ -2349,8 +2735,11 @@
       <c r="C132" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D132" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>122</v>
       </c>
@@ -2360,12 +2749,15 @@
       <c r="C133" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D133" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
     </row>
-    <row r="135" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>123</v>
       </c>
@@ -2375,8 +2767,11 @@
       <c r="C135" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D135" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>124</v>
       </c>
@@ -2386,8 +2781,11 @@
       <c r="C136" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D136" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>125</v>
       </c>
@@ -2397,8 +2795,11 @@
       <c r="C137" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D137" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>126</v>
       </c>
@@ -2408,8 +2809,11 @@
       <c r="C138" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D138" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>127</v>
       </c>
@@ -2419,8 +2823,11 @@
       <c r="C139" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D139" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>128</v>
       </c>
@@ -2430,8 +2837,11 @@
       <c r="C140" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D140" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>129</v>
       </c>
@@ -2441,8 +2851,11 @@
       <c r="C141" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D141" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>130</v>
       </c>
@@ -2452,8 +2865,11 @@
       <c r="C142" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D142" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>131</v>
       </c>
@@ -2463,8 +2879,11 @@
       <c r="C143" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D143" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>132</v>
       </c>
@@ -2474,8 +2893,11 @@
       <c r="C144" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D144" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>133</v>
       </c>
@@ -2485,8 +2907,11 @@
       <c r="C145" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D145" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>134</v>
       </c>
@@ -2496,8 +2921,11 @@
       <c r="C146" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D146" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>135</v>
       </c>
@@ -2507,8 +2935,11 @@
       <c r="C147" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D147" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>136</v>
       </c>
@@ -2518,8 +2949,11 @@
       <c r="C148" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D148" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>137</v>
       </c>
@@ -2529,8 +2963,11 @@
       <c r="C149" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D149" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>138</v>
       </c>
@@ -2540,8 +2977,11 @@
       <c r="C150" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D150" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>139</v>
       </c>
@@ -2551,8 +2991,11 @@
       <c r="C151" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D151" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>140</v>
       </c>
@@ -2561,6 +3004,9 @@
       </c>
       <c r="C152" s="2" t="s">
         <v>155</v>
+      </c>
+      <c r="D152" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
